--- a/test/testAssetAmount/assetAmountPerformance.xlsx
+++ b/test/testAssetAmount/assetAmountPerformance.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ACUO\projects\acuo-allocation\test\testAssetAmount\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="6420"/>
+    <workbookView windowHeight="6420" windowWidth="14340" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="95">
   <si>
     <t>RData</t>
   </si>
@@ -46,6 +46,264 @@
   </si>
   <si>
     <t>195.660000000003</t>
+  </si>
+  <si>
+    <t>10.2200000000012</t>
+  </si>
+  <si>
+    <t>10.3000000000175</t>
+  </si>
+  <si>
+    <t>10.2399999999907</t>
+  </si>
+  <si>
+    <t>10.609999999986</t>
+  </si>
+  <si>
+    <t>0.190000000002328</t>
+  </si>
+  <si>
+    <t>10.2799999999988</t>
+  </si>
+  <si>
+    <t>timeLimit</t>
+  </si>
+  <si>
+    <t>dailyCost</t>
+  </si>
+  <si>
+    <t>RLRatio</t>
+  </si>
+  <si>
+    <t>movement</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>10.25</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>14.390000000014</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>14.9199999999837</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>13.4100000000035</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>13.8600000000151</t>
+  </si>
+  <si>
+    <t>10.359999999986</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>40.2700000000186</t>
+  </si>
+  <si>
+    <t>90.25</t>
+  </si>
+  <si>
+    <t>160.429999999993</t>
+  </si>
+  <si>
+    <t>178.029999999999</t>
+  </si>
+  <si>
+    <t>40.5499999999884</t>
+  </si>
+  <si>
+    <t>90.2999999999884</t>
+  </si>
+  <si>
+    <t>160.309999999998</t>
+  </si>
+  <si>
+    <t>250.360000000015</t>
+  </si>
+  <si>
+    <t>10.5299999999988</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>23.0799999999872</t>
+  </si>
+  <si>
+    <t>21.390000000014</t>
+  </si>
+  <si>
+    <t>21.4799999999814</t>
+  </si>
+  <si>
+    <t>10582.0633886882</t>
+  </si>
+  <si>
+    <t>0.810498649955858</t>
+  </si>
+  <si>
+    <t>10.2699999999895</t>
+  </si>
+  <si>
+    <t>10726.1178834597</t>
+  </si>
+  <si>
+    <t>0.847675454422041</t>
+  </si>
+  <si>
+    <t>13.4499999999825</t>
+  </si>
+  <si>
+    <t>13.2200000000012</t>
+  </si>
+  <si>
+    <t>13.4700000000012</t>
+  </si>
+  <si>
+    <t>13.1000000000058</t>
+  </si>
+  <si>
+    <t>10.1900000000023</t>
+  </si>
+  <si>
+    <t>40.1999999999825</t>
+  </si>
+  <si>
+    <t>10726.1179182788</t>
+  </si>
+  <si>
+    <t>0.810905146257044</t>
+  </si>
+  <si>
+    <t>90.2200000000012</t>
+  </si>
+  <si>
+    <t>159.699999999983</t>
+  </si>
+  <si>
+    <t>11018.6595872387</t>
+  </si>
+  <si>
+    <t>0.811730669920967</t>
+  </si>
+  <si>
+    <t>161.360000000015</t>
+  </si>
+  <si>
+    <t>11826.5709898442</t>
+  </si>
+  <si>
+    <t>0.643995798296796</t>
+  </si>
+  <si>
+    <t>40.25</t>
+  </si>
+  <si>
+    <t>90.2900000000081</t>
+  </si>
+  <si>
+    <t>160.23000000001</t>
+  </si>
+  <si>
+    <t>250.329999999987</t>
+  </si>
+  <si>
+    <t>10.7200000000012</t>
+  </si>
+  <si>
+    <t>33191.5693453745</t>
+  </si>
+  <si>
+    <t>0.514598062085398</t>
+  </si>
+  <si>
+    <t>21.359999999986</t>
+  </si>
+  <si>
+    <t>21.4300000000221</t>
+  </si>
+  <si>
+    <t>21.570000000007</t>
+  </si>
+  <si>
+    <t>22.2799999999988</t>
+  </si>
+  <si>
+    <t>0.220000000001164</t>
+  </si>
+  <si>
+    <t>10.210000000021</t>
+  </si>
+  <si>
+    <t>13.4500000000116</t>
+  </si>
+  <si>
+    <t>14.8899999999849</t>
+  </si>
+  <si>
+    <t>13.9900000000198</t>
+  </si>
+  <si>
+    <t>16.8699999999953</t>
+  </si>
+  <si>
+    <t>10.4200000000128</t>
+  </si>
+  <si>
+    <t>40.6199999999953</t>
+  </si>
+  <si>
+    <t>160.270000000019</t>
+  </si>
+  <si>
+    <t>160.220000000001</t>
+  </si>
+  <si>
+    <t>90.2700000000186</t>
+  </si>
+  <si>
+    <t>160.339999999997</t>
+  </si>
+  <si>
+    <t>250.239999999991</t>
+  </si>
+  <si>
+    <t>10.5799999999872</t>
+  </si>
+  <si>
+    <t>20.359999999986</t>
+  </si>
+  <si>
+    <t>20.5200000000186</t>
+  </si>
+  <si>
+    <t>20.5499999999884</t>
+  </si>
+  <si>
+    <t>22.9500000000116</t>
+  </si>
+  <si>
+    <t>0.290000000008149</t>
+  </si>
+  <si>
+    <t>10.3699999999953</t>
   </si>
 </sst>
 </file>
@@ -94,77 +352,1262 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164">
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+  <cellXfs count="416">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
@@ -180,10 +1623,10 @@
     <cellStyle name="XLConnect.Header" xfId="1"/>
     <cellStyle name="XLConnect.Numeric" xfId="3"/>
     <cellStyle name="XLConnect.String" xfId="2"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -200,10 +1643,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -238,7 +1681,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,7 +1716,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,21 +1810,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -398,7 +1841,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -450,107 +1893,1462 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="46.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="32"/>
+      <c r="C2" s="2">
         <v>21.8399999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="32"/>
+      <c r="C3" s="6">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="32"/>
+      <c r="C4" s="8">
         <v>15.9000000000015</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="32"/>
+      <c r="C5" s="10">
         <v>181.900000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="32"/>
+      <c r="C6" s="12">
         <v>1000.52</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="32"/>
+      <c r="C7" s="14">
         <v>24.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="32"/>
+      <c r="C8" s="16">
         <v>0.23000000000320101</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="32"/>
+      <c r="C9" s="18">
         <v>1000.56</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="20" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="37">
+        <v>0.28999999997904502</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="41">
+        <v>10726.117883459699</v>
+      </c>
+      <c r="E18" s="42">
+        <v>0.84767545442204095</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="47">
+        <v>10726.117883459699</v>
+      </c>
+      <c r="E19" s="48">
+        <v>0.84767545442204095</v>
+      </c>
+      <c r="F19" s="49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="53">
+        <v>10726.117883459699</v>
+      </c>
+      <c r="E20" s="54">
+        <v>0.84767545442204095</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="59">
+        <v>10726.117883459699</v>
+      </c>
+      <c r="E21" s="60">
+        <v>0.84767545442204095</v>
+      </c>
+      <c r="F21" s="61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="65">
+        <v>10726.117883459699</v>
+      </c>
+      <c r="E22" s="66">
+        <v>0.84767545442204095</v>
+      </c>
+      <c r="F22" s="67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="71">
+        <v>10582.063388688201</v>
+      </c>
+      <c r="E23" s="72">
+        <v>0.81049864995585796</v>
+      </c>
+      <c r="F23" s="73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="77">
+        <v>10726.1179182788</v>
+      </c>
+      <c r="E24" s="78">
+        <v>0.81090514625704402</v>
+      </c>
+      <c r="F24" s="79" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="83">
+        <v>10726.1179182788</v>
+      </c>
+      <c r="E25" s="84">
+        <v>0.81090514625704402</v>
+      </c>
+      <c r="F25" s="85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="89">
+        <v>11018.659587238701</v>
+      </c>
+      <c r="E26" s="90">
+        <v>0.81173066992096699</v>
+      </c>
+      <c r="F26" s="91" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="95">
+        <v>11018.659587238701</v>
+      </c>
+      <c r="E27" s="96">
+        <v>0.81173066992096699</v>
+      </c>
+      <c r="F27" s="97" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="101">
+        <v>11826.5709898442</v>
+      </c>
+      <c r="E28" s="102">
+        <v>0.64399579829679598</v>
+      </c>
+      <c r="F28" s="103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="107">
+        <v>11826.5709898442</v>
+      </c>
+      <c r="E29" s="108">
+        <v>0.64399579829679598</v>
+      </c>
+      <c r="F29" s="109" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="111" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="113">
+        <v>11826.5709898442</v>
+      </c>
+      <c r="E30" s="114">
+        <v>0.64399579829679598</v>
+      </c>
+      <c r="F30" s="115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="117" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="119">
+        <v>11826.5709898442</v>
+      </c>
+      <c r="E31" s="120">
+        <v>0.64399579829679598</v>
+      </c>
+      <c r="F31" s="121" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="123" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="124" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="125">
+        <v>11826.5709898442</v>
+      </c>
+      <c r="E32" s="126">
+        <v>0.64399579829679598</v>
+      </c>
+      <c r="F32" s="127" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="128" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="129" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="130" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="131">
+        <v>33191.569345374497</v>
+      </c>
+      <c r="E33" s="132">
+        <v>0.51459806208539804</v>
+      </c>
+      <c r="F33" s="133" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="134" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="135" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="137">
+        <v>33191.569345374497</v>
+      </c>
+      <c r="E34" s="138">
+        <v>0.51459806208539804</v>
+      </c>
+      <c r="F34" s="139" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="141" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="142" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="143">
+        <v>33191.569345374497</v>
+      </c>
+      <c r="E35" s="144">
+        <v>0.51459806208539804</v>
+      </c>
+      <c r="F35" s="145" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="146" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="147" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="148" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="149">
+        <v>33191.569345374497</v>
+      </c>
+      <c r="E36" s="150">
+        <v>0.51459806208539804</v>
+      </c>
+      <c r="F36" s="151" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="152" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="153" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="154" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="155">
+        <v>33191.569345374497</v>
+      </c>
+      <c r="E37" s="156">
+        <v>0.51459806208539804</v>
+      </c>
+      <c r="F37" s="157" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="158" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="159">
+        <v>0.22999999998137399</v>
+      </c>
+    </row>
+    <row ht="30" r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="160" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="163" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="164" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="165" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="166" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="167" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="168" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="169" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="170" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="171" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="172" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="173" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="174" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="175" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="176" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="177" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="178" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="179" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="180" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="181" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="182" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="183" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="184" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="185" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="186" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="187" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="188" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="189" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="190" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="191" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="192" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="193" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="194" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="195" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="196" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="197" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="199" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="200" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="201" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="202" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="203" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="205" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="206" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="207" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="208" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" s="209" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="211" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="212" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="213" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="214" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="215" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="217" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="218" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="219" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="220" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" s="221" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="222" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="223" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="224" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="225" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="226" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" s="227" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="228" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="229" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="230" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="231" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="232" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="233" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="234" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="235" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="236" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="237" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="238" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" s="239" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="240" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="241" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="242" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="243" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="244" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" s="245" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="246" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="247" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="248" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="249" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" s="250" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54" s="251" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="252" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="253" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="254" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="255" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" s="256" t="s">
+        <v>63</v>
+      </c>
+      <c r="F55" s="257" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="258" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="259" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="260" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="261" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="262" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" s="263" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="264" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="265" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="266" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="267" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="268" t="s">
+        <v>70</v>
+      </c>
+      <c r="F57" s="269" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="270" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="271" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="272" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="273" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="274" t="s">
+        <v>70</v>
+      </c>
+      <c r="F58" s="275" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="276" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="277" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="278" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="279" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="280" t="s">
+        <v>70</v>
+      </c>
+      <c r="F59" s="281" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="282" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="283" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="284" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="286" t="s">
+        <v>70</v>
+      </c>
+      <c r="F60" s="287" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="288" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="289" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="290" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="291" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="292" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="293" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="294" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" s="295" t="s">
+        <v>47</v>
+      </c>
+      <c r="E63" s="296" t="s">
+        <v>48</v>
+      </c>
+      <c r="F63" s="297" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="298" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="299" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="300" t="s">
+        <v>77</v>
+      </c>
+      <c r="D64" s="301" t="s">
+        <v>47</v>
+      </c>
+      <c r="E64" s="302" t="s">
+        <v>48</v>
+      </c>
+      <c r="F64" s="303" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="304" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="305" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="306" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="307" t="s">
+        <v>47</v>
+      </c>
+      <c r="E65" s="308" t="s">
+        <v>48</v>
+      </c>
+      <c r="F65" s="309" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="310" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="311" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="312" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" s="313" t="s">
+        <v>47</v>
+      </c>
+      <c r="E66" s="314" t="s">
+        <v>48</v>
+      </c>
+      <c r="F66" s="315" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="316" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="317" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="318" t="s">
+        <v>80</v>
+      </c>
+      <c r="D67" s="319" t="s">
+        <v>47</v>
+      </c>
+      <c r="E67" s="320" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67" s="321" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="322" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="323" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="324" t="s">
+        <v>81</v>
+      </c>
+      <c r="D68" s="325" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" s="326" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" s="327" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="328" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="329" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="330" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" s="331" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" s="332" t="s">
+        <v>56</v>
+      </c>
+      <c r="F69" s="333" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="334" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="335" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="336" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" s="337" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" s="338" t="s">
+        <v>56</v>
+      </c>
+      <c r="F70" s="339" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="340" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="341" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="342" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" s="343" t="s">
+        <v>59</v>
+      </c>
+      <c r="E71" s="344" t="s">
+        <v>60</v>
+      </c>
+      <c r="F71" s="345" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="346" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="347" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="348" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="349" t="s">
+        <v>59</v>
+      </c>
+      <c r="E72" s="350" t="s">
+        <v>60</v>
+      </c>
+      <c r="F72" s="351" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="352" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="353" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="354" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="355" t="s">
+        <v>62</v>
+      </c>
+      <c r="E73" s="356" t="s">
+        <v>63</v>
+      </c>
+      <c r="F73" s="357" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="358" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="359" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" s="360" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74" s="361" t="s">
+        <v>62</v>
+      </c>
+      <c r="E74" s="362" t="s">
+        <v>63</v>
+      </c>
+      <c r="F74" s="363" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="364" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="365" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" s="366" t="s">
+        <v>85</v>
+      </c>
+      <c r="D75" s="367" t="s">
+        <v>62</v>
+      </c>
+      <c r="E75" s="368" t="s">
+        <v>63</v>
+      </c>
+      <c r="F75" s="369" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="370" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="371" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" s="372" t="s">
+        <v>86</v>
+      </c>
+      <c r="D76" s="373" t="s">
+        <v>62</v>
+      </c>
+      <c r="E76" s="374" t="s">
+        <v>63</v>
+      </c>
+      <c r="F76" s="375" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="376" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="377" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" s="378" t="s">
+        <v>87</v>
+      </c>
+      <c r="D77" s="379" t="s">
+        <v>62</v>
+      </c>
+      <c r="E77" s="380" t="s">
+        <v>63</v>
+      </c>
+      <c r="F77" s="381" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="382" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="383" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="384" t="s">
+        <v>88</v>
+      </c>
+      <c r="D78" s="385" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="386" t="s">
+        <v>70</v>
+      </c>
+      <c r="F78" s="387" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="388" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="389" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="390" t="s">
+        <v>89</v>
+      </c>
+      <c r="D79" s="391" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="392" t="s">
+        <v>70</v>
+      </c>
+      <c r="F79" s="393" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="394" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="395" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="396" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" s="397" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="398" t="s">
+        <v>70</v>
+      </c>
+      <c r="F80" s="399" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="400" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="401" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" s="402" t="s">
+        <v>91</v>
+      </c>
+      <c r="D81" s="403" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="404" t="s">
+        <v>70</v>
+      </c>
+      <c r="F81" s="405" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="406" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="407" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="408" t="s">
+        <v>92</v>
+      </c>
+      <c r="D82" s="409" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="410" t="s">
+        <v>70</v>
+      </c>
+      <c r="F82" s="411" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="412" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="413" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="414">
+        <v>7</v>
+      </c>
+      <c r="B84" t="s" s="415">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/test/testAssetAmount/assetAmountPerformance.xlsx
+++ b/test/testAssetAmount/assetAmountPerformance.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="107">
   <si>
     <t>RData</t>
   </si>
@@ -304,6 +304,42 @@
   </si>
   <si>
     <t>10.3699999999953</t>
+  </si>
+  <si>
+    <t>10.5100000000093</t>
+  </si>
+  <si>
+    <t>40.3500000000058</t>
+  </si>
+  <si>
+    <t>160.360000000015</t>
+  </si>
+  <si>
+    <t>250.359999999986</t>
+  </si>
+  <si>
+    <t>14.2099999999919</t>
+  </si>
+  <si>
+    <t>16.3000000000175</t>
+  </si>
+  <si>
+    <t>15.4700000000012</t>
+  </si>
+  <si>
+    <t>14.6199999999953</t>
+  </si>
+  <si>
+    <t>10.429999999993</t>
+  </si>
+  <si>
+    <t>90.390000000014</t>
+  </si>
+  <si>
+    <t>160.389999999985</t>
+  </si>
+  <si>
+    <t>175.929999999993</t>
   </si>
 </sst>
 </file>
@@ -369,7 +405,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="416">
+  <cellXfs count="502">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
@@ -1608,6 +1644,264 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
@@ -1901,10 +2195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2496,7 +2790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40">
+    <row ht="30" r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="162" t="s">
         <v>5</v>
       </c>
@@ -2516,7 +2810,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41">
+    <row ht="30" r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="168" t="s">
         <v>2</v>
       </c>
@@ -2536,7 +2830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42">
+    <row ht="30" r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="174" t="s">
         <v>2</v>
       </c>
@@ -2556,7 +2850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43">
+    <row ht="30" r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="180" t="s">
         <v>2</v>
       </c>
@@ -2576,7 +2870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44">
+    <row ht="30" r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="186" t="s">
         <v>2</v>
       </c>
@@ -2596,7 +2890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45">
+    <row ht="30" r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="192" t="s">
         <v>2</v>
       </c>
@@ -2616,7 +2910,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46">
+    <row ht="30" r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="198" t="s">
         <v>5</v>
       </c>
@@ -2636,7 +2930,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47">
+    <row ht="30" r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="204" t="s">
         <v>5</v>
       </c>
@@ -2656,7 +2950,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48">
+    <row ht="30" r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="210" t="s">
         <v>5</v>
       </c>
@@ -2676,7 +2970,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49">
+    <row ht="30" r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="216" t="s">
         <v>5</v>
       </c>
@@ -2696,7 +2990,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50">
+    <row ht="30" r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="222" t="s">
         <v>5</v>
       </c>
@@ -2716,7 +3010,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51">
+    <row ht="30" r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="228" t="s">
         <v>5</v>
       </c>
@@ -2736,7 +3030,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52">
+    <row ht="30" r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="234" t="s">
         <v>5</v>
       </c>
@@ -2756,7 +3050,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53">
+    <row ht="30" r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="240" t="s">
         <v>5</v>
       </c>
@@ -2776,7 +3070,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54">
+    <row ht="30" r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="246" t="s">
         <v>5</v>
       </c>
@@ -2796,7 +3090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55">
+    <row ht="30" r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="252" t="s">
         <v>5</v>
       </c>
@@ -2816,7 +3110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56">
+    <row ht="30" r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="258" t="s">
         <v>4</v>
       </c>
@@ -2836,7 +3130,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57">
+    <row ht="30" r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="264" t="s">
         <v>4</v>
       </c>
@@ -2856,7 +3150,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58">
+    <row ht="30" r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="270" t="s">
         <v>4</v>
       </c>
@@ -2876,7 +3170,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59">
+    <row ht="30" r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="276" t="s">
         <v>4</v>
       </c>
@@ -2896,7 +3190,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60">
+    <row ht="30" r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="282" t="s">
         <v>4</v>
       </c>
@@ -2916,7 +3210,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61">
+    <row ht="30" r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="288" t="s">
         <v>6</v>
       </c>
@@ -2924,7 +3218,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62">
+    <row ht="30" r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="290" t="s">
         <v>7</v>
       </c>
@@ -2932,7 +3226,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63">
+    <row ht="30" r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="292" t="s">
         <v>2</v>
       </c>
@@ -2952,7 +3246,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64">
+    <row ht="30" r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="298" t="s">
         <v>2</v>
       </c>
@@ -2972,7 +3266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65">
+    <row ht="30" r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="304" t="s">
         <v>2</v>
       </c>
@@ -2992,7 +3286,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66">
+    <row ht="30" r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="310" t="s">
         <v>2</v>
       </c>
@@ -3012,7 +3306,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67">
+    <row ht="30" r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="316" t="s">
         <v>2</v>
       </c>
@@ -3032,7 +3326,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68">
+    <row ht="30" r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="322" t="s">
         <v>5</v>
       </c>
@@ -3052,7 +3346,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69">
+    <row ht="30" r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="328" t="s">
         <v>5</v>
       </c>
@@ -3072,7 +3366,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70">
+    <row ht="30" r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="334" t="s">
         <v>5</v>
       </c>
@@ -3092,7 +3386,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71">
+    <row ht="30" r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="340" t="s">
         <v>5</v>
       </c>
@@ -3112,7 +3406,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72">
+    <row ht="30" r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="346" t="s">
         <v>5</v>
       </c>
@@ -3132,7 +3426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73">
+    <row ht="30" r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="352" t="s">
         <v>5</v>
       </c>
@@ -3152,7 +3446,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74">
+    <row ht="30" r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="358" t="s">
         <v>5</v>
       </c>
@@ -3172,7 +3466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75">
+    <row ht="30" r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="364" t="s">
         <v>5</v>
       </c>
@@ -3192,7 +3486,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76">
+    <row ht="30" r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="370" t="s">
         <v>5</v>
       </c>
@@ -3212,7 +3506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77">
+    <row ht="30" r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="376" t="s">
         <v>5</v>
       </c>
@@ -3232,7 +3526,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78">
+    <row ht="30" r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="382" t="s">
         <v>4</v>
       </c>
@@ -3252,7 +3546,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79">
+    <row ht="30" r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="388" t="s">
         <v>4</v>
       </c>
@@ -3272,7 +3566,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80">
+    <row ht="30" r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="394" t="s">
         <v>4</v>
       </c>
@@ -3292,7 +3586,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81">
+    <row ht="30" r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="400" t="s">
         <v>4</v>
       </c>
@@ -3312,7 +3606,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82">
+    <row ht="30" r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="406" t="s">
         <v>4</v>
       </c>
@@ -3332,7 +3626,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83">
+    <row ht="30" r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="412" t="s">
         <v>6</v>
       </c>
@@ -3340,12 +3634,312 @@
         <v>93</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="s" s="414">
+    <row ht="30" r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="414" t="s">
         <v>7</v>
       </c>
-      <c r="B84" t="s" s="415">
+      <c r="B84" s="415" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row ht="30" r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="416" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="417" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" s="418" t="s">
+        <v>95</v>
+      </c>
+      <c r="D85" s="419" t="s">
+        <v>62</v>
+      </c>
+      <c r="E85" s="420" t="s">
+        <v>63</v>
+      </c>
+      <c r="F85" s="421" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="30" r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="441" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="422" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="423" t="s">
+        <v>96</v>
+      </c>
+      <c r="D86" s="424" t="s">
+        <v>62</v>
+      </c>
+      <c r="E86" s="425" t="s">
+        <v>63</v>
+      </c>
+      <c r="F86" s="426" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="30" r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="441" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="427" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="428" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="429" t="s">
+        <v>62</v>
+      </c>
+      <c r="E87" s="430" t="s">
+        <v>63</v>
+      </c>
+      <c r="F87" s="431" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="30" r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="441" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="432" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="433" t="s">
+        <v>97</v>
+      </c>
+      <c r="D88" s="434" t="s">
+        <v>62</v>
+      </c>
+      <c r="E88" s="435" t="s">
+        <v>63</v>
+      </c>
+      <c r="F88" s="436" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="30" r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="441" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="437" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" s="438" t="s">
+        <v>98</v>
+      </c>
+      <c r="D89" s="439" t="s">
+        <v>62</v>
+      </c>
+      <c r="E89" s="440" t="s">
+        <v>63</v>
+      </c>
+      <c r="F89" s="441" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="442" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="443" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="444" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="445" t="s">
+        <v>47</v>
+      </c>
+      <c r="E90" s="446" t="s">
+        <v>48</v>
+      </c>
+      <c r="F90" s="447" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="448" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="449" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" s="450" t="s">
+        <v>99</v>
+      </c>
+      <c r="D91" s="451" t="s">
+        <v>47</v>
+      </c>
+      <c r="E91" s="452" t="s">
+        <v>48</v>
+      </c>
+      <c r="F91" s="453" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="454" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="455" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="456" t="s">
+        <v>100</v>
+      </c>
+      <c r="D92" s="457" t="s">
+        <v>47</v>
+      </c>
+      <c r="E92" s="458" t="s">
+        <v>48</v>
+      </c>
+      <c r="F92" s="459" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="460" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="461" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" s="462" t="s">
+        <v>101</v>
+      </c>
+      <c r="D93" s="463" t="s">
+        <v>47</v>
+      </c>
+      <c r="E93" s="464" t="s">
+        <v>48</v>
+      </c>
+      <c r="F93" s="465" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="466" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="467" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" s="468" t="s">
+        <v>102</v>
+      </c>
+      <c r="D94" s="469" t="s">
+        <v>47</v>
+      </c>
+      <c r="E94" s="470" t="s">
+        <v>48</v>
+      </c>
+      <c r="F94" s="471" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="472" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="473" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="474" t="s">
+        <v>103</v>
+      </c>
+      <c r="D95" s="475" t="s">
+        <v>44</v>
+      </c>
+      <c r="E95" s="476" t="s">
+        <v>45</v>
+      </c>
+      <c r="F95" s="477" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="478" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="479" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="480" t="s">
+        <v>31</v>
+      </c>
+      <c r="D96" s="481" t="s">
+        <v>55</v>
+      </c>
+      <c r="E96" s="482" t="s">
+        <v>56</v>
+      </c>
+      <c r="F96" s="483" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="484" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="485" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="486" t="s">
+        <v>104</v>
+      </c>
+      <c r="D97" s="487" t="s">
+        <v>55</v>
+      </c>
+      <c r="E97" s="488" t="s">
+        <v>56</v>
+      </c>
+      <c r="F97" s="489" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="490" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="491" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" s="492" t="s">
+        <v>105</v>
+      </c>
+      <c r="D98" s="493" t="s">
+        <v>59</v>
+      </c>
+      <c r="E98" s="494" t="s">
+        <v>60</v>
+      </c>
+      <c r="F98" s="495" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="496">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s" s="497">
+        <v>27</v>
+      </c>
+      <c r="C99" t="s" s="498">
+        <v>106</v>
+      </c>
+      <c r="D99" t="s" s="499">
+        <v>59</v>
+      </c>
+      <c r="E99" t="s" s="500">
+        <v>60</v>
+      </c>
+      <c r="F99" t="s" s="501">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
